--- a/Financials/Quarterly/PKX_QTR_FIN.xlsx
+++ b/Financials/Quarterly/PKX_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F56D41-3975-4477-91E5-228C4D55E15E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PKX" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,153 +686,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14475000</v>
+        <v>14626900</v>
       </c>
       <c r="E8" s="3">
-        <v>14276100</v>
+        <v>14441400</v>
       </c>
       <c r="F8" s="3">
-        <v>14037700</v>
+        <v>14153300</v>
       </c>
       <c r="G8" s="3">
-        <v>13532500</v>
+        <v>13958800</v>
       </c>
       <c r="H8" s="3">
-        <v>13450000</v>
+        <v>13725700</v>
       </c>
       <c r="I8" s="3">
+        <v>13231800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>13151100</v>
+      </c>
+      <c r="K8" s="3">
         <v>13569500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>13515600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11472800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12527000</v>
+        <v>13719300</v>
       </c>
       <c r="E9" s="3">
-        <v>12128500</v>
+        <v>12337800</v>
       </c>
       <c r="F9" s="3">
-        <v>12030400</v>
+        <v>12248600</v>
       </c>
       <c r="G9" s="3">
-        <v>11733700</v>
+        <v>11859000</v>
       </c>
       <c r="H9" s="3">
-        <v>11767900</v>
+        <v>11763100</v>
       </c>
       <c r="I9" s="3">
+        <v>11472900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11506400</v>
+      </c>
+      <c r="K9" s="3">
         <v>11537200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>12060300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>9707000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1948000</v>
+        <v>907600</v>
       </c>
       <c r="E10" s="3">
-        <v>2147500</v>
+        <v>2103600</v>
       </c>
       <c r="F10" s="3">
-        <v>2007200</v>
+        <v>1904700</v>
       </c>
       <c r="G10" s="3">
-        <v>1798800</v>
+        <v>2099800</v>
       </c>
       <c r="H10" s="3">
-        <v>1682000</v>
+        <v>1962600</v>
       </c>
       <c r="I10" s="3">
+        <v>1758800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1644700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2032300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1455400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1765800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,37 +869,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>24600</v>
+        <v>21300</v>
       </c>
       <c r="E12" s="3">
-        <v>22000</v>
+        <v>28500</v>
       </c>
       <c r="F12" s="3">
-        <v>39400</v>
+        <v>24000</v>
       </c>
       <c r="G12" s="3">
-        <v>28500</v>
+        <v>21500</v>
       </c>
       <c r="H12" s="3">
-        <v>22300</v>
+        <v>38500</v>
       </c>
       <c r="I12" s="3">
+        <v>27800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K12" s="3">
         <v>23000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>38700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -867,66 +935,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>5500</v>
+        <v>1212700</v>
       </c>
       <c r="E14" s="3">
-        <v>18300</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="3">
-        <v>218400</v>
+        <v>5400</v>
       </c>
       <c r="G14" s="3">
-        <v>46500</v>
+        <v>17900</v>
       </c>
       <c r="H14" s="3">
-        <v>64500</v>
+        <v>213600</v>
       </c>
       <c r="I14" s="3">
+        <v>45400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-17400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>245100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>49700</v>
+        <v>48900</v>
       </c>
       <c r="E15" s="3">
-        <v>46600</v>
+        <v>45000</v>
       </c>
       <c r="F15" s="3">
-        <v>57500</v>
+        <v>48600</v>
       </c>
       <c r="G15" s="3">
-        <v>54200</v>
+        <v>45600</v>
       </c>
       <c r="H15" s="3">
-        <v>53300</v>
+        <v>56200</v>
       </c>
       <c r="I15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K15" s="3">
         <v>54300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>56000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,66 +1021,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>13353400</v>
+        <v>14720600</v>
       </c>
       <c r="E17" s="3">
-        <v>12955500</v>
+        <v>13094000</v>
       </c>
       <c r="F17" s="3">
-        <v>13219200</v>
+        <v>13056700</v>
       </c>
       <c r="G17" s="3">
-        <v>12565800</v>
+        <v>12667600</v>
       </c>
       <c r="H17" s="3">
-        <v>12633300</v>
+        <v>12925500</v>
       </c>
       <c r="I17" s="3">
+        <v>12286600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12352600</v>
+      </c>
+      <c r="K17" s="3">
         <v>12323600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>13336200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10631300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1121500</v>
+        <v>-93700</v>
       </c>
       <c r="E18" s="3">
-        <v>1320600</v>
+        <v>1347400</v>
       </c>
       <c r="F18" s="3">
-        <v>818400</v>
+        <v>1096600</v>
       </c>
       <c r="G18" s="3">
-        <v>966700</v>
+        <v>1291200</v>
       </c>
       <c r="H18" s="3">
-        <v>816700</v>
+        <v>800200</v>
       </c>
       <c r="I18" s="3">
+        <v>945200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>798500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1245800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>179400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>841500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,153 +1106,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-126800</v>
+        <v>16400</v>
       </c>
       <c r="E20" s="3">
-        <v>159800</v>
+        <v>97400</v>
       </c>
       <c r="F20" s="3">
-        <v>84800</v>
+        <v>-124000</v>
       </c>
       <c r="G20" s="3">
-        <v>295300</v>
+        <v>156200</v>
       </c>
       <c r="H20" s="3">
-        <v>23100</v>
+        <v>82900</v>
       </c>
       <c r="I20" s="3">
+        <v>288700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K20" s="3">
         <v>98800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-87700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-91500</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1731700</v>
+        <v>650200</v>
       </c>
       <c r="E21" s="3">
-        <v>2220400</v>
+        <v>2148700</v>
       </c>
       <c r="F21" s="3">
-        <v>1655000</v>
+        <v>1693200</v>
       </c>
       <c r="G21" s="3">
-        <v>1999500</v>
+        <v>2171100</v>
       </c>
       <c r="H21" s="3">
-        <v>1567600</v>
+        <v>1618200</v>
       </c>
       <c r="I21" s="3">
+        <v>1955100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1532800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2095000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>806700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1486600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>158200</v>
+        <v>182800</v>
       </c>
       <c r="E22" s="3">
-        <v>145700</v>
+        <v>172400</v>
       </c>
       <c r="F22" s="3">
-        <v>138400</v>
+        <v>154700</v>
       </c>
       <c r="G22" s="3">
-        <v>153800</v>
+        <v>142400</v>
       </c>
       <c r="H22" s="3">
-        <v>143800</v>
+        <v>135400</v>
       </c>
       <c r="I22" s="3">
+        <v>150400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>140600</v>
+      </c>
+      <c r="K22" s="3">
         <v>151700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>131200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>152900</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>836500</v>
+        <v>-260100</v>
       </c>
       <c r="E23" s="3">
-        <v>1334700</v>
+        <v>1272400</v>
       </c>
       <c r="F23" s="3">
-        <v>764800</v>
+        <v>817900</v>
       </c>
       <c r="G23" s="3">
-        <v>1108200</v>
+        <v>1305100</v>
       </c>
       <c r="H23" s="3">
-        <v>695900</v>
+        <v>747800</v>
       </c>
       <c r="I23" s="3">
+        <v>1083500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>680400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1192900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-39500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>597000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>314200</v>
+        <v>469800</v>
       </c>
       <c r="E24" s="3">
-        <v>359500</v>
+        <v>341700</v>
       </c>
       <c r="F24" s="3">
-        <v>260900</v>
+        <v>307200</v>
       </c>
       <c r="G24" s="3">
-        <v>292200</v>
+        <v>351500</v>
       </c>
       <c r="H24" s="3">
-        <v>218900</v>
+        <v>255100</v>
       </c>
       <c r="I24" s="3">
+        <v>285700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>214000</v>
+      </c>
+      <c r="K24" s="3">
         <v>313700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-51800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>169000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,66 +1312,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>522300</v>
+        <v>-729900</v>
       </c>
       <c r="E26" s="3">
-        <v>975200</v>
+        <v>930700</v>
       </c>
       <c r="F26" s="3">
-        <v>503900</v>
+        <v>510700</v>
       </c>
       <c r="G26" s="3">
-        <v>816000</v>
+        <v>953500</v>
       </c>
       <c r="H26" s="3">
-        <v>477000</v>
+        <v>492700</v>
       </c>
       <c r="I26" s="3">
+        <v>797800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>466400</v>
+      </c>
+      <c r="K26" s="3">
         <v>879200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>12400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>428000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>484500</v>
+        <v>-764800</v>
       </c>
       <c r="E27" s="3">
-        <v>887200</v>
+        <v>895700</v>
       </c>
       <c r="F27" s="3">
-        <v>493700</v>
+        <v>473800</v>
       </c>
       <c r="G27" s="3">
-        <v>775000</v>
+        <v>867500</v>
       </c>
       <c r="H27" s="3">
-        <v>454400</v>
+        <v>482700</v>
       </c>
       <c r="I27" s="3">
+        <v>757800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>444300</v>
+      </c>
+      <c r="K27" s="3">
         <v>758300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>142100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>483600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1267,8 +1417,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1296,8 +1452,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1325,8 +1487,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1354,66 +1522,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>126800</v>
+        <v>-16400</v>
       </c>
       <c r="E32" s="3">
-        <v>-159800</v>
+        <v>-97400</v>
       </c>
       <c r="F32" s="3">
-        <v>-84800</v>
+        <v>124000</v>
       </c>
       <c r="G32" s="3">
-        <v>-295300</v>
+        <v>-156200</v>
       </c>
       <c r="H32" s="3">
-        <v>-23100</v>
+        <v>-82900</v>
       </c>
       <c r="I32" s="3">
+        <v>-288700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-98800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>87700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>484500</v>
+        <v>-764800</v>
       </c>
       <c r="E33" s="3">
-        <v>887200</v>
+        <v>895700</v>
       </c>
       <c r="F33" s="3">
-        <v>493700</v>
+        <v>473800</v>
       </c>
       <c r="G33" s="3">
-        <v>775000</v>
+        <v>867500</v>
       </c>
       <c r="H33" s="3">
-        <v>454400</v>
+        <v>482700</v>
       </c>
       <c r="I33" s="3">
+        <v>757800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>444300</v>
+      </c>
+      <c r="K33" s="3">
         <v>758300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>142100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>483600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1441,71 +1627,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>484500</v>
+        <v>-764800</v>
       </c>
       <c r="E35" s="3">
-        <v>887200</v>
+        <v>895700</v>
       </c>
       <c r="F35" s="3">
-        <v>493700</v>
+        <v>473800</v>
       </c>
       <c r="G35" s="3">
-        <v>775000</v>
+        <v>867500</v>
       </c>
       <c r="H35" s="3">
-        <v>454400</v>
+        <v>482700</v>
       </c>
       <c r="I35" s="3">
+        <v>757800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>444300</v>
+      </c>
+      <c r="K35" s="3">
         <v>758300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>142100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>483600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1517,8 +1721,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1530,269 +1736,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2363200</v>
+        <v>2326600</v>
       </c>
       <c r="E41" s="3">
-        <v>2554500</v>
+        <v>2848900</v>
       </c>
       <c r="F41" s="3">
-        <v>2351300</v>
+        <v>2310700</v>
       </c>
       <c r="G41" s="3">
-        <v>2659900</v>
+        <v>2497800</v>
       </c>
       <c r="H41" s="3">
-        <v>2607300</v>
+        <v>2299000</v>
       </c>
       <c r="I41" s="3">
+        <v>2600800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2549400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2452700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2202900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3061200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>6313300</v>
+        <v>7111400</v>
       </c>
       <c r="E42" s="3">
-        <v>7121200</v>
+        <v>7502400</v>
       </c>
       <c r="F42" s="3">
-        <v>6341300</v>
+        <v>6173000</v>
       </c>
       <c r="G42" s="3">
-        <v>5063300</v>
+        <v>6962900</v>
       </c>
       <c r="H42" s="3">
-        <v>4199300</v>
+        <v>6200400</v>
       </c>
       <c r="I42" s="3">
+        <v>4950800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4106000</v>
+      </c>
+      <c r="K42" s="3">
         <v>4439200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>4696300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>10210100</v>
+        <v>9337800</v>
       </c>
       <c r="E43" s="3">
-        <v>9780800</v>
+        <v>10246500</v>
       </c>
       <c r="F43" s="3">
-        <v>9466100</v>
+        <v>9983200</v>
       </c>
       <c r="G43" s="3">
-        <v>10364100</v>
+        <v>9563500</v>
       </c>
       <c r="H43" s="3">
-        <v>10442600</v>
+        <v>9255800</v>
       </c>
       <c r="I43" s="3">
+        <v>10133800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>10210500</v>
+      </c>
+      <c r="K43" s="3">
         <v>10026900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>10151300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>9088800</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>9575500</v>
+        <v>10119900</v>
       </c>
       <c r="E44" s="3">
-        <v>9272700</v>
+        <v>9601800</v>
       </c>
       <c r="F44" s="3">
-        <v>8955900</v>
+        <v>9362700</v>
       </c>
       <c r="G44" s="3">
-        <v>8837900</v>
+        <v>9066600</v>
       </c>
       <c r="H44" s="3">
-        <v>8740500</v>
+        <v>8756800</v>
       </c>
       <c r="I44" s="3">
+        <v>8641500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>8546300</v>
+      </c>
+      <c r="K44" s="3">
         <v>8539600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>8146500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>7112200</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1550900</v>
+        <v>717200</v>
       </c>
       <c r="E45" s="3">
-        <v>888100</v>
+        <v>948100</v>
       </c>
       <c r="F45" s="3">
-        <v>900100</v>
+        <v>1516500</v>
       </c>
       <c r="G45" s="3">
-        <v>880500</v>
+        <v>868400</v>
       </c>
       <c r="H45" s="3">
-        <v>898900</v>
+        <v>880100</v>
       </c>
       <c r="I45" s="3">
+        <v>860900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>878900</v>
+      </c>
+      <c r="K45" s="3">
         <v>957400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1176400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1200800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>30013000</v>
+        <v>29612900</v>
       </c>
       <c r="E46" s="3">
-        <v>29617300</v>
+        <v>31147700</v>
       </c>
       <c r="F46" s="3">
-        <v>28014700</v>
+        <v>29346000</v>
       </c>
       <c r="G46" s="3">
-        <v>27805800</v>
+        <v>28959100</v>
       </c>
       <c r="H46" s="3">
-        <v>26888600</v>
+        <v>27392100</v>
       </c>
       <c r="I46" s="3">
+        <v>27187900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>26291100</v>
+      </c>
+      <c r="K46" s="3">
         <v>26415900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>26373500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>24694900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>6147200</v>
+        <v>5663900</v>
       </c>
       <c r="E47" s="3">
-        <v>6261800</v>
+        <v>5864400</v>
       </c>
       <c r="F47" s="3">
-        <v>6262100</v>
+        <v>6010600</v>
       </c>
       <c r="G47" s="3">
-        <v>6474800</v>
+        <v>6122600</v>
       </c>
       <c r="H47" s="3">
-        <v>6711700</v>
+        <v>6122900</v>
       </c>
       <c r="I47" s="3">
+        <v>6330900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>6562500</v>
+      </c>
+      <c r="K47" s="3">
         <v>6335400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>6524900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>6272100</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>29223800</v>
+        <v>27233300</v>
       </c>
       <c r="E48" s="3">
-        <v>29367200</v>
+        <v>28206500</v>
       </c>
       <c r="F48" s="3">
-        <v>29653600</v>
+        <v>28574400</v>
       </c>
       <c r="G48" s="3">
-        <v>30358300</v>
+        <v>28714600</v>
       </c>
       <c r="H48" s="3">
-        <v>30550200</v>
+        <v>28994600</v>
       </c>
       <c r="I48" s="3">
+        <v>29683700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>29871300</v>
+      </c>
+      <c r="K48" s="3">
         <v>30528800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>31399300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>30973200</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4651800</v>
+        <v>4550300</v>
       </c>
       <c r="E49" s="3">
-        <v>5273700</v>
+        <v>4526700</v>
       </c>
       <c r="F49" s="3">
-        <v>5357000</v>
+        <v>4548400</v>
       </c>
       <c r="G49" s="3">
-        <v>5474000</v>
+        <v>5156500</v>
       </c>
       <c r="H49" s="3">
-        <v>5483200</v>
+        <v>5238000</v>
       </c>
       <c r="I49" s="3">
+        <v>5352400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5361300</v>
+      </c>
+      <c r="K49" s="3">
         <v>5450200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5479900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5580600</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1820,8 +2082,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1849,37 +2117,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1906000</v>
+        <v>1798200</v>
       </c>
       <c r="E52" s="3">
-        <v>1913900</v>
+        <v>1836600</v>
       </c>
       <c r="F52" s="3">
-        <v>1835100</v>
+        <v>1863600</v>
       </c>
       <c r="G52" s="3">
-        <v>1869700</v>
+        <v>1871400</v>
       </c>
       <c r="H52" s="3">
-        <v>1923800</v>
+        <v>1794300</v>
       </c>
       <c r="I52" s="3">
+        <v>1828200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1881100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1949600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2009200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1835600</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1907,37 +2187,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>71941800</v>
+        <v>68858500</v>
       </c>
       <c r="E54" s="3">
-        <v>72433900</v>
+        <v>71581800</v>
       </c>
       <c r="F54" s="3">
-        <v>71122500</v>
+        <v>70343100</v>
       </c>
       <c r="G54" s="3">
-        <v>71982700</v>
+        <v>70824300</v>
       </c>
       <c r="H54" s="3">
-        <v>71557500</v>
+        <v>69542000</v>
       </c>
       <c r="I54" s="3">
+        <v>70383000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>69967400</v>
+      </c>
+      <c r="K54" s="3">
         <v>70679900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>71786700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>69356500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1949,8 +2241,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1962,182 +2256,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3228700</v>
+        <v>3525400</v>
       </c>
       <c r="E57" s="3">
-        <v>3232700</v>
+        <v>3281200</v>
       </c>
       <c r="F57" s="3">
-        <v>3118600</v>
+        <v>3156900</v>
       </c>
       <c r="G57" s="3">
-        <v>2954900</v>
+        <v>3160900</v>
       </c>
       <c r="H57" s="3">
-        <v>3154700</v>
+        <v>3049300</v>
       </c>
       <c r="I57" s="3">
+        <v>2889200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3084600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2993900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3666000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2650100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>10516400</v>
+        <v>9063800</v>
       </c>
       <c r="E58" s="3">
-        <v>9989200</v>
+        <v>10379000</v>
       </c>
       <c r="F58" s="3">
-        <v>10163100</v>
+        <v>10282700</v>
       </c>
       <c r="G58" s="3">
-        <v>10061500</v>
+        <v>9767300</v>
       </c>
       <c r="H58" s="3">
-        <v>10207300</v>
+        <v>9937200</v>
       </c>
       <c r="I58" s="3">
+        <v>9838000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>9980400</v>
+      </c>
+      <c r="K58" s="3">
         <v>8984200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>9197400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8636800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4200000</v>
+        <v>4076200</v>
       </c>
       <c r="E59" s="3">
-        <v>4406300</v>
+        <v>4085700</v>
       </c>
       <c r="F59" s="3">
-        <v>3769700</v>
+        <v>4106600</v>
       </c>
       <c r="G59" s="3">
-        <v>3563900</v>
+        <v>4308400</v>
       </c>
       <c r="H59" s="3">
-        <v>3704400</v>
+        <v>3686000</v>
       </c>
       <c r="I59" s="3">
+        <v>3484700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3622100</v>
+      </c>
+      <c r="K59" s="3">
         <v>4523100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4160500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3963500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>17945100</v>
+        <v>16665400</v>
       </c>
       <c r="E60" s="3">
-        <v>17628300</v>
+        <v>17745800</v>
       </c>
       <c r="F60" s="3">
-        <v>17051400</v>
+        <v>17546300</v>
       </c>
       <c r="G60" s="3">
-        <v>16580400</v>
+        <v>17236500</v>
       </c>
       <c r="H60" s="3">
-        <v>17066400</v>
+        <v>16672500</v>
       </c>
       <c r="I60" s="3">
+        <v>16211900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>16687100</v>
+      </c>
+      <c r="K60" s="3">
         <v>16501100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>17023900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15250400</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>8704600</v>
+        <v>8803700</v>
       </c>
       <c r="E61" s="3">
-        <v>9063800</v>
+        <v>9123000</v>
       </c>
       <c r="F61" s="3">
-        <v>8878000</v>
+        <v>8511100</v>
       </c>
       <c r="G61" s="3">
-        <v>10252100</v>
+        <v>8862400</v>
       </c>
       <c r="H61" s="3">
-        <v>10027700</v>
+        <v>8680700</v>
       </c>
       <c r="I61" s="3">
+        <v>10024300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>9804900</v>
+      </c>
+      <c r="K61" s="3">
         <v>10435200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>11340100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>11053300</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>2390100</v>
+        <v>2240900</v>
       </c>
       <c r="E62" s="3">
-        <v>2585700</v>
+        <v>2408600</v>
       </c>
       <c r="F62" s="3">
-        <v>2475500</v>
+        <v>2337000</v>
       </c>
       <c r="G62" s="3">
-        <v>2333900</v>
+        <v>2528300</v>
       </c>
       <c r="H62" s="3">
-        <v>2260500</v>
+        <v>2420500</v>
       </c>
       <c r="I62" s="3">
+        <v>2282100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2210300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2242000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2168200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2361000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2165,8 +2497,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2194,8 +2532,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2223,37 +2567,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>32401900</v>
+        <v>30691800</v>
       </c>
       <c r="E66" s="3">
-        <v>32599900</v>
+        <v>32251100</v>
       </c>
       <c r="F66" s="3">
-        <v>31762900</v>
+        <v>31681800</v>
       </c>
       <c r="G66" s="3">
-        <v>32585900</v>
+        <v>31875500</v>
       </c>
       <c r="H66" s="3">
-        <v>32749400</v>
+        <v>31057000</v>
       </c>
       <c r="I66" s="3">
+        <v>31861700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>32021600</v>
+      </c>
+      <c r="K66" s="3">
         <v>32543000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>33650600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>31852300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2265,8 +2621,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2294,8 +2652,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2323,8 +2687,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2352,8 +2722,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2381,37 +2757,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>40012600</v>
+        <v>38910100</v>
       </c>
       <c r="E72" s="3">
-        <v>39640500</v>
+        <v>39892000</v>
       </c>
       <c r="F72" s="3">
-        <v>38750900</v>
+        <v>39123500</v>
       </c>
       <c r="G72" s="3">
-        <v>38400400</v>
+        <v>38759600</v>
       </c>
       <c r="H72" s="3">
-        <v>37733000</v>
+        <v>37889800</v>
       </c>
       <c r="I72" s="3">
+        <v>37547100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>36894500</v>
+      </c>
+      <c r="K72" s="3">
         <v>37391100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>37056400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>36912900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2439,8 +2827,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2468,8 +2862,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2497,37 +2897,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>39539900</v>
+        <v>38166700</v>
       </c>
       <c r="E76" s="3">
-        <v>39834000</v>
+        <v>39330800</v>
       </c>
       <c r="F76" s="3">
-        <v>39359600</v>
+        <v>38661200</v>
       </c>
       <c r="G76" s="3">
-        <v>39396800</v>
+        <v>38948800</v>
       </c>
       <c r="H76" s="3">
-        <v>38808200</v>
+        <v>38484900</v>
       </c>
       <c r="I76" s="3">
+        <v>38521300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>37945700</v>
+      </c>
+      <c r="K76" s="3">
         <v>38137000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>38136100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>37504200</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2555,71 +2967,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>484500</v>
+        <v>-764800</v>
       </c>
       <c r="E81" s="3">
-        <v>887200</v>
+        <v>895700</v>
       </c>
       <c r="F81" s="3">
-        <v>493700</v>
+        <v>473800</v>
       </c>
       <c r="G81" s="3">
-        <v>775000</v>
+        <v>867500</v>
       </c>
       <c r="H81" s="3">
-        <v>454400</v>
+        <v>482700</v>
       </c>
       <c r="I81" s="3">
+        <v>757800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>444300</v>
+      </c>
+      <c r="K81" s="3">
         <v>758300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>142100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>483600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2631,37 +3061,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>737000</v>
+        <v>727500</v>
       </c>
       <c r="E83" s="3">
-        <v>740000</v>
+        <v>703900</v>
       </c>
       <c r="F83" s="3">
-        <v>751800</v>
+        <v>720600</v>
       </c>
       <c r="G83" s="3">
-        <v>737600</v>
+        <v>723600</v>
       </c>
       <c r="H83" s="3">
-        <v>727900</v>
+        <v>735100</v>
       </c>
       <c r="I83" s="3">
+        <v>721200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>711700</v>
+      </c>
+      <c r="K83" s="3">
         <v>750400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>715000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>736700</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2689,8 +3127,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2718,8 +3162,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2747,8 +3197,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2776,8 +3232,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2805,37 +3267,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>685100</v>
+        <v>1454900</v>
       </c>
       <c r="E89" s="3">
-        <v>1364700</v>
+        <v>1710300</v>
       </c>
       <c r="F89" s="3">
-        <v>2238800</v>
+        <v>669800</v>
       </c>
       <c r="G89" s="3">
-        <v>1274700</v>
+        <v>1334400</v>
       </c>
       <c r="H89" s="3">
-        <v>779800</v>
+        <v>2189000</v>
       </c>
       <c r="I89" s="3">
+        <v>1246400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>762400</v>
+      </c>
+      <c r="K89" s="3">
         <v>700300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>151000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1566800</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2847,37 +3321,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-440000</v>
+        <v>-687500</v>
       </c>
       <c r="E91" s="3">
-        <v>-391600</v>
+        <v>-424000</v>
       </c>
       <c r="F91" s="3">
-        <v>-733500</v>
+        <v>-412300</v>
       </c>
       <c r="G91" s="3">
-        <v>-468600</v>
+        <v>-355600</v>
       </c>
       <c r="H91" s="3">
-        <v>-614000</v>
+        <v>-638700</v>
       </c>
       <c r="I91" s="3">
+        <v>-425500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-470800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-551900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-328000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-780000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2905,8 +3387,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2934,37 +3422,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>467400</v>
+        <v>4000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1093400</v>
+        <v>-1722100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1687700</v>
+        <v>457100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1031400</v>
+        <v>-1069100</v>
       </c>
       <c r="H94" s="3">
-        <v>-569200</v>
+        <v>-1650200</v>
       </c>
       <c r="I94" s="3">
+        <v>-1008500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-556600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-147700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-354200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-569600</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2976,37 +3476,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-398000</v>
+        <v>-135300</v>
       </c>
       <c r="E96" s="3">
-        <v>-4900</v>
+        <v>-103000</v>
       </c>
       <c r="F96" s="3">
-        <v>-108000</v>
+        <v>-346200</v>
       </c>
       <c r="G96" s="3">
-        <v>-108200</v>
+        <v>-4800</v>
       </c>
       <c r="H96" s="3">
-        <v>-517800</v>
+        <v>-105600</v>
       </c>
       <c r="I96" s="3">
+        <v>-105800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-506300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-59300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-107900</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3034,8 +3542,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3063,8 +3577,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3092,37 +3612,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1341500</v>
+        <v>-1981200</v>
       </c>
       <c r="E100" s="3">
-        <v>-68000</v>
+        <v>547700</v>
       </c>
       <c r="F100" s="3">
-        <v>-859700</v>
+        <v>-1311700</v>
       </c>
       <c r="G100" s="3">
-        <v>-190700</v>
+        <v>-66500</v>
       </c>
       <c r="H100" s="3">
-        <v>-58200</v>
+        <v>-840600</v>
       </c>
       <c r="I100" s="3">
+        <v>-186400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-655100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1246800</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3150,33 +3682,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-189000</v>
+        <v>-522300</v>
       </c>
       <c r="E102" s="3">
-        <v>203300</v>
+        <v>535900</v>
       </c>
       <c r="F102" s="3">
-        <v>-308700</v>
+        <v>-184800</v>
       </c>
       <c r="G102" s="3">
-        <v>52600</v>
+        <v>198800</v>
       </c>
       <c r="H102" s="3">
-        <v>152400</v>
+        <v>-301800</v>
       </c>
       <c r="I102" s="3">
+        <v>51400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>149000</v>
+      </c>
+      <c r="K102" s="3">
         <v>252100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-858300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-249600</v>
       </c>
     </row>

--- a/Financials/Quarterly/PKX_QTR_FIN.xlsx
+++ b/Financials/Quarterly/PKX_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F56D41-3975-4477-91E5-228C4D55E15E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="PKX" sheetId="6" r:id="rId1"/>
@@ -301,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,178 +651,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14626900</v>
+        <v>13430100</v>
       </c>
       <c r="E8" s="3">
-        <v>14441400</v>
+        <v>13709900</v>
       </c>
       <c r="F8" s="3">
-        <v>14153300</v>
+        <v>13452000</v>
       </c>
       <c r="G8" s="3">
-        <v>13958800</v>
+        <v>54581300</v>
       </c>
       <c r="H8" s="3">
+        <v>13785000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>13510000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>13324300</v>
+      </c>
+      <c r="K8" s="3">
         <v>13725700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>13231800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>13151100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>13569500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>13515600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>11472800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13719300</v>
+        <v>12075500</v>
       </c>
       <c r="E9" s="3">
-        <v>12337800</v>
+        <v>12354000</v>
       </c>
       <c r="F9" s="3">
-        <v>12248600</v>
+        <v>11928700</v>
       </c>
       <c r="G9" s="3">
-        <v>11859000</v>
+        <v>47884500</v>
       </c>
       <c r="H9" s="3">
+        <v>12048700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>11950100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11564700</v>
+      </c>
+      <c r="K9" s="3">
         <v>11763100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>11472900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>11506400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>11537200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>12060300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>9707000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>907600</v>
+        <v>1354600</v>
       </c>
       <c r="E10" s="3">
-        <v>2103600</v>
+        <v>1355900</v>
       </c>
       <c r="F10" s="3">
-        <v>1904700</v>
+        <v>1523200</v>
       </c>
       <c r="G10" s="3">
-        <v>2099800</v>
+        <v>6696800</v>
       </c>
       <c r="H10" s="3">
+        <v>1736300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1559900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1759600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1962600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>1758800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>1644700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>2032300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>1455400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>1765800</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -871,43 +875,55 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>21300</v>
+        <v>22500</v>
       </c>
       <c r="E12" s="3">
-        <v>28500</v>
+        <v>22100</v>
       </c>
       <c r="F12" s="3">
-        <v>24000</v>
+        <v>25500</v>
       </c>
       <c r="G12" s="3">
-        <v>21500</v>
+        <v>91000</v>
       </c>
       <c r="H12" s="3">
+        <v>27200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>22900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K12" s="3">
         <v>38500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>27800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>21800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>23000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>38700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,78 +957,105 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1212700</v>
+        <v>170100</v>
       </c>
       <c r="E14" s="3">
+        <v>69700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>51200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1179800</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>17900</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K14" s="3">
         <v>213600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>45400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>63100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>-17400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>245100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>48900</v>
+        <v>52000</v>
       </c>
       <c r="E15" s="3">
-        <v>45000</v>
+        <v>50200</v>
       </c>
       <c r="F15" s="3">
-        <v>48600</v>
+        <v>52700</v>
       </c>
       <c r="G15" s="3">
-        <v>45600</v>
+        <v>179500</v>
       </c>
       <c r="H15" s="3">
+        <v>42900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>46400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K15" s="3">
         <v>56200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>53000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>52100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>54300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>56000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>55500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,78 +1066,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>14720600</v>
+        <v>12726800</v>
       </c>
       <c r="E17" s="3">
-        <v>13094000</v>
+        <v>12882000</v>
       </c>
       <c r="F17" s="3">
-        <v>13056700</v>
+        <v>12492700</v>
       </c>
       <c r="G17" s="3">
-        <v>12667600</v>
+        <v>51105300</v>
       </c>
       <c r="H17" s="3">
+        <v>12498800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>12463200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12091800</v>
+      </c>
+      <c r="K17" s="3">
         <v>12925500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>12286600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>12352600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>12323600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>13336200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>10631300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-93700</v>
+        <v>703300</v>
       </c>
       <c r="E18" s="3">
-        <v>1347400</v>
+        <v>827900</v>
       </c>
       <c r="F18" s="3">
-        <v>1096600</v>
+        <v>959200</v>
       </c>
       <c r="G18" s="3">
-        <v>1291200</v>
+        <v>3476000</v>
       </c>
       <c r="H18" s="3">
+        <v>1286200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1046800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1232500</v>
+      </c>
+      <c r="K18" s="3">
         <v>800200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>945200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>798500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>1245800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>179400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>841500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1108,183 +1172,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>16400</v>
+        <v>164500</v>
       </c>
       <c r="E20" s="3">
-        <v>97400</v>
+        <v>147500</v>
       </c>
       <c r="F20" s="3">
-        <v>-124000</v>
+        <v>172600</v>
       </c>
       <c r="G20" s="3">
-        <v>156200</v>
+        <v>139500</v>
       </c>
       <c r="H20" s="3">
+        <v>93000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>149100</v>
+      </c>
+      <c r="K20" s="3">
         <v>82900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>288700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>22600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>98800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-87700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-91500</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>650200</v>
+        <v>1589700</v>
       </c>
       <c r="E21" s="3">
-        <v>2148700</v>
+        <v>1700200</v>
       </c>
       <c r="F21" s="3">
-        <v>1693200</v>
+        <v>1857600</v>
       </c>
       <c r="G21" s="3">
-        <v>2171100</v>
+        <v>6360300</v>
       </c>
       <c r="H21" s="3">
+        <v>2051100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1616200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2072400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1618200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>1955100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>1532800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>2095000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>806700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>1486600</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>182800</v>
+        <v>151000</v>
       </c>
       <c r="E22" s="3">
-        <v>172400</v>
+        <v>160200</v>
       </c>
       <c r="F22" s="3">
-        <v>154700</v>
+        <v>168400</v>
       </c>
       <c r="G22" s="3">
-        <v>142400</v>
+        <v>622700</v>
       </c>
       <c r="H22" s="3">
+        <v>164600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>147700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>136000</v>
+      </c>
+      <c r="K22" s="3">
         <v>135400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>150400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>140600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>151700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>131200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>152900</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-260100</v>
+        <v>716700</v>
       </c>
       <c r="E23" s="3">
-        <v>1272400</v>
+        <v>815200</v>
       </c>
       <c r="F23" s="3">
-        <v>817900</v>
+        <v>963400</v>
       </c>
       <c r="G23" s="3">
-        <v>1305100</v>
+        <v>2992800</v>
       </c>
       <c r="H23" s="3">
+        <v>1214600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>780700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1245700</v>
+      </c>
+      <c r="K23" s="3">
         <v>747800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>1083500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>680400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>1192900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-39500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>597000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>469800</v>
+        <v>299400</v>
       </c>
       <c r="E24" s="3">
-        <v>341700</v>
+        <v>242800</v>
       </c>
       <c r="F24" s="3">
-        <v>307200</v>
+        <v>309500</v>
       </c>
       <c r="G24" s="3">
-        <v>351500</v>
+        <v>1403400</v>
       </c>
       <c r="H24" s="3">
+        <v>326200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>293200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>335600</v>
+      </c>
+      <c r="K24" s="3">
         <v>255100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>285700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>214000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>313700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>-51800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>169000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1318,78 +1430,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-729900</v>
+        <v>417300</v>
       </c>
       <c r="E26" s="3">
-        <v>930700</v>
+        <v>572400</v>
       </c>
       <c r="F26" s="3">
-        <v>510700</v>
+        <v>653900</v>
       </c>
       <c r="G26" s="3">
-        <v>953500</v>
+        <v>1589300</v>
       </c>
       <c r="H26" s="3">
+        <v>888400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>487500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>910200</v>
+      </c>
+      <c r="K26" s="3">
         <v>492700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>797800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>466400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>879200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>12400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>428000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-764800</v>
+        <v>360500</v>
       </c>
       <c r="E27" s="3">
-        <v>895700</v>
+        <v>512900</v>
       </c>
       <c r="F27" s="3">
-        <v>473800</v>
+        <v>621300</v>
       </c>
       <c r="G27" s="3">
-        <v>867500</v>
+        <v>1405200</v>
       </c>
       <c r="H27" s="3">
+        <v>855000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>452200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>828100</v>
+      </c>
+      <c r="K27" s="3">
         <v>482700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>757800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>444300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>758300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>142100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>483600</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1423,8 +1562,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1458,8 +1606,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1650,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,78 +1694,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-16400</v>
+        <v>-164500</v>
       </c>
       <c r="E32" s="3">
-        <v>-97400</v>
+        <v>-147500</v>
       </c>
       <c r="F32" s="3">
-        <v>124000</v>
+        <v>-172600</v>
       </c>
       <c r="G32" s="3">
-        <v>-156200</v>
+        <v>-139500</v>
       </c>
       <c r="H32" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>118400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-149100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-82900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-288700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-22600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-98800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>87700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>91500</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-764800</v>
+        <v>360500</v>
       </c>
       <c r="E33" s="3">
-        <v>895700</v>
+        <v>512900</v>
       </c>
       <c r="F33" s="3">
-        <v>473800</v>
+        <v>621300</v>
       </c>
       <c r="G33" s="3">
-        <v>867500</v>
+        <v>1405200</v>
       </c>
       <c r="H33" s="3">
+        <v>855000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>452200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>828100</v>
+      </c>
+      <c r="K33" s="3">
         <v>482700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>757800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>444300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>758300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>142100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>483600</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1633,83 +1826,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-764800</v>
+        <v>360500</v>
       </c>
       <c r="E35" s="3">
-        <v>895700</v>
+        <v>512900</v>
       </c>
       <c r="F35" s="3">
-        <v>473800</v>
+        <v>621300</v>
       </c>
       <c r="G35" s="3">
-        <v>867500</v>
+        <v>1405200</v>
       </c>
       <c r="H35" s="3">
+        <v>855000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>452200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>828100</v>
+      </c>
+      <c r="K35" s="3">
         <v>482700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>757800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>444300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>758300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>142100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>483600</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1723,8 +1943,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1738,323 +1961,407 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2326600</v>
+        <v>2378700</v>
       </c>
       <c r="E41" s="3">
-        <v>2848900</v>
+        <v>2144700</v>
       </c>
       <c r="F41" s="3">
-        <v>2310700</v>
+        <v>2215500</v>
       </c>
       <c r="G41" s="3">
-        <v>2497800</v>
+        <v>2220800</v>
       </c>
       <c r="H41" s="3">
+        <v>2719400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2205700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2384200</v>
+      </c>
+      <c r="K41" s="3">
         <v>2299000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>2600800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>2549400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>2452700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>2202900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>3061200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>7111400</v>
+        <v>6646100</v>
       </c>
       <c r="E42" s="3">
-        <v>7502400</v>
+        <v>6302500</v>
       </c>
       <c r="F42" s="3">
-        <v>6173000</v>
+        <v>6959200</v>
       </c>
       <c r="G42" s="3">
-        <v>6962900</v>
+        <v>6788100</v>
       </c>
       <c r="H42" s="3">
+        <v>7161400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>5892400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>6646400</v>
+      </c>
+      <c r="K42" s="3">
         <v>6200400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>4950800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>4106000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>4439200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>4696300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>4232000</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>9337800</v>
+        <v>9499000</v>
       </c>
       <c r="E43" s="3">
-        <v>10246500</v>
+        <v>9625000</v>
       </c>
       <c r="F43" s="3">
-        <v>9983200</v>
+        <v>9620400</v>
       </c>
       <c r="G43" s="3">
-        <v>9563500</v>
+        <v>8913400</v>
       </c>
       <c r="H43" s="3">
+        <v>9780800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>9529400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>9128800</v>
+      </c>
+      <c r="K43" s="3">
         <v>9255800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>10133800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>10210500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>10026900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>10151300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>9088800</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>10119900</v>
+        <v>9887000</v>
       </c>
       <c r="E44" s="3">
-        <v>9601800</v>
+        <v>9834900</v>
       </c>
       <c r="F44" s="3">
-        <v>9362700</v>
+        <v>9457900</v>
       </c>
       <c r="G44" s="3">
-        <v>9066600</v>
+        <v>9659900</v>
       </c>
       <c r="H44" s="3">
+        <v>9165400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>8937100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>8654500</v>
+      </c>
+      <c r="K44" s="3">
         <v>8756800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>8641500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>8546300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>8539600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>8146500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>7112200</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>717200</v>
+        <v>745700</v>
       </c>
       <c r="E45" s="3">
-        <v>948100</v>
+        <v>701500</v>
       </c>
       <c r="F45" s="3">
-        <v>1516500</v>
+        <v>876300</v>
       </c>
       <c r="G45" s="3">
-        <v>868400</v>
+        <v>684600</v>
       </c>
       <c r="H45" s="3">
+        <v>905000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1447500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>828900</v>
+      </c>
+      <c r="K45" s="3">
         <v>880100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>860900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>878900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>957400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>1176400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>1200800</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>29612900</v>
+        <v>29156500</v>
       </c>
       <c r="E46" s="3">
-        <v>31147700</v>
+        <v>28608600</v>
       </c>
       <c r="F46" s="3">
-        <v>29346000</v>
+        <v>29129300</v>
       </c>
       <c r="G46" s="3">
-        <v>28959100</v>
+        <v>28266800</v>
       </c>
       <c r="H46" s="3">
+        <v>29731900</v>
+      </c>
+      <c r="I46" s="3">
+        <v>28012100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>27642800</v>
+      </c>
+      <c r="K46" s="3">
         <v>27392100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>27187900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>26291100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>26415900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>26373500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>24694900</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>5663900</v>
+        <v>5660100</v>
       </c>
       <c r="E47" s="3">
-        <v>5864400</v>
+        <v>5553500</v>
       </c>
       <c r="F47" s="3">
-        <v>6010600</v>
+        <v>5612600</v>
       </c>
       <c r="G47" s="3">
-        <v>6122600</v>
+        <v>5404800</v>
       </c>
       <c r="H47" s="3">
+        <v>5596300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>5735800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>5842700</v>
+      </c>
+      <c r="K47" s="3">
         <v>6122900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>6330900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>6562500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>6335400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>6524900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>6272100</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>27233300</v>
+        <v>26255200</v>
       </c>
       <c r="E48" s="3">
-        <v>28206500</v>
+        <v>26269700</v>
       </c>
       <c r="F48" s="3">
-        <v>28574400</v>
+        <v>26387900</v>
       </c>
       <c r="G48" s="3">
-        <v>28714600</v>
+        <v>25995400</v>
       </c>
       <c r="H48" s="3">
+        <v>26924400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>27275600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>27409400</v>
+      </c>
+      <c r="K48" s="3">
         <v>28994600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>29683700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>29871300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>30528800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>31399300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>30973200</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4550300</v>
+        <v>4217600</v>
       </c>
       <c r="E49" s="3">
-        <v>4526700</v>
+        <v>4339600</v>
       </c>
       <c r="F49" s="3">
-        <v>4548400</v>
+        <v>4344500</v>
       </c>
       <c r="G49" s="3">
-        <v>5156500</v>
+        <v>4343500</v>
       </c>
       <c r="H49" s="3">
+        <v>4320900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4341700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4922100</v>
+      </c>
+      <c r="K49" s="3">
         <v>5238000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>5352400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>5361300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>5450200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>5479900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>5580600</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2088,8 +2395,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2123,43 +2439,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1798200</v>
+        <v>1590700</v>
       </c>
       <c r="E52" s="3">
-        <v>1836600</v>
+        <v>1581000</v>
       </c>
       <c r="F52" s="3">
-        <v>1863600</v>
+        <v>1507100</v>
       </c>
       <c r="G52" s="3">
-        <v>1871400</v>
+        <v>1718000</v>
       </c>
       <c r="H52" s="3">
+        <v>1754600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1780400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1787900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1794300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>1828200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>1881100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>1949600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>2009200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>1835600</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2193,43 +2527,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>68858500</v>
+        <v>66880000</v>
       </c>
       <c r="E54" s="3">
-        <v>71581800</v>
+        <v>66352500</v>
       </c>
       <c r="F54" s="3">
-        <v>70343100</v>
+        <v>66981500</v>
       </c>
       <c r="G54" s="3">
-        <v>70824300</v>
+        <v>65728500</v>
       </c>
       <c r="H54" s="3">
+        <v>68328100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>67145700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>67605000</v>
+      </c>
+      <c r="K54" s="3">
         <v>69542000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>70383000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>69967400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>70679900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>71786700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>69356500</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2243,8 +2595,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2258,218 +2613,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3525400</v>
+        <v>3120000</v>
       </c>
       <c r="E57" s="3">
-        <v>3281200</v>
+        <v>3379000</v>
       </c>
       <c r="F57" s="3">
-        <v>3156900</v>
+        <v>3159100</v>
       </c>
       <c r="G57" s="3">
-        <v>3160900</v>
+        <v>3365200</v>
       </c>
       <c r="H57" s="3">
+        <v>3132000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3013400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3017200</v>
+      </c>
+      <c r="K57" s="3">
         <v>3049300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>2889200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>3084600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>2993900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>3666000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>2650100</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>9063800</v>
+        <v>7138400</v>
       </c>
       <c r="E58" s="3">
-        <v>10379000</v>
+        <v>7639800</v>
       </c>
       <c r="F58" s="3">
-        <v>10282700</v>
+        <v>8070500</v>
       </c>
       <c r="G58" s="3">
-        <v>9767300</v>
+        <v>8651800</v>
       </c>
       <c r="H58" s="3">
+        <v>9907200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>9815300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>9323300</v>
+      </c>
+      <c r="K58" s="3">
         <v>9937200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>9838000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>9980400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>8984200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>9197400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>8636800</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4076200</v>
+        <v>3821700</v>
       </c>
       <c r="E59" s="3">
-        <v>4085700</v>
+        <v>3836000</v>
       </c>
       <c r="F59" s="3">
-        <v>4106600</v>
+        <v>4684600</v>
       </c>
       <c r="G59" s="3">
-        <v>4308400</v>
+        <v>3890900</v>
       </c>
       <c r="H59" s="3">
+        <v>3899900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3920000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4112600</v>
+      </c>
+      <c r="K59" s="3">
         <v>3686000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>3484700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>3622100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>4523100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>4160500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>3963500</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>16665400</v>
+        <v>14080100</v>
       </c>
       <c r="E60" s="3">
-        <v>17745800</v>
+        <v>14854900</v>
       </c>
       <c r="F60" s="3">
-        <v>17546300</v>
+        <v>15914100</v>
       </c>
       <c r="G60" s="3">
-        <v>17236500</v>
+        <v>15907900</v>
       </c>
       <c r="H60" s="3">
+        <v>16939200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>16748700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>16453100</v>
+      </c>
+      <c r="K60" s="3">
         <v>16672500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>16211900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>16687100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>16501100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>17023900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>15250400</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>8803700</v>
+        <v>10126200</v>
       </c>
       <c r="E61" s="3">
-        <v>9123000</v>
+        <v>9072900</v>
       </c>
       <c r="F61" s="3">
-        <v>8511100</v>
+        <v>9265900</v>
       </c>
       <c r="G61" s="3">
-        <v>8862400</v>
+        <v>8403600</v>
       </c>
       <c r="H61" s="3">
+        <v>8708300</v>
+      </c>
+      <c r="I61" s="3">
+        <v>8124300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>8459500</v>
+      </c>
+      <c r="K61" s="3">
         <v>8680700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>10024300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>9804900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>10435200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>11340100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>11053300</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>2240900</v>
+        <v>2246100</v>
       </c>
       <c r="E62" s="3">
-        <v>2408600</v>
+        <v>2210500</v>
       </c>
       <c r="F62" s="3">
-        <v>2337000</v>
+        <v>2116200</v>
       </c>
       <c r="G62" s="3">
-        <v>2528300</v>
+        <v>2139000</v>
       </c>
       <c r="H62" s="3">
+        <v>2299100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2230700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2413300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2420500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>2282100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>2210300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>2242000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>2168200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>2361000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2503,8 +2915,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2538,8 +2959,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2573,43 +3003,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>30691800</v>
+        <v>29284700</v>
       </c>
       <c r="E66" s="3">
-        <v>32251100</v>
+        <v>29008600</v>
       </c>
       <c r="F66" s="3">
-        <v>31681800</v>
+        <v>30067800</v>
       </c>
       <c r="G66" s="3">
-        <v>31875500</v>
+        <v>29296700</v>
       </c>
       <c r="H66" s="3">
+        <v>30785100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>30241700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>30426600</v>
+      </c>
+      <c r="K66" s="3">
         <v>31057000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>31861700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>32021600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>32543000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>33650600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>31852300</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2623,8 +3071,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2658,8 +3109,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2693,8 +3153,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2728,8 +3197,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2763,43 +3241,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>38910100</v>
+        <v>38036000</v>
       </c>
       <c r="E72" s="3">
-        <v>39892000</v>
+        <v>37817500</v>
       </c>
       <c r="F72" s="3">
-        <v>39123500</v>
+        <v>37436200</v>
       </c>
       <c r="G72" s="3">
-        <v>38759600</v>
+        <v>37141500</v>
       </c>
       <c r="H72" s="3">
+        <v>38078800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>37345100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>36997800</v>
+      </c>
+      <c r="K72" s="3">
         <v>37889800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>37547100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>36894500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>37391100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>37056400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>36912900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2833,8 +3329,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2868,8 +3373,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2903,43 +3417,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>38166700</v>
+        <v>37595300</v>
       </c>
       <c r="E76" s="3">
-        <v>39330800</v>
+        <v>37343900</v>
       </c>
       <c r="F76" s="3">
-        <v>38661200</v>
+        <v>36913700</v>
       </c>
       <c r="G76" s="3">
-        <v>38948800</v>
+        <v>36431900</v>
       </c>
       <c r="H76" s="3">
+        <v>37543000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>36903900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>37178400</v>
+      </c>
+      <c r="K76" s="3">
         <v>38484900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>38521300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>37945700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>38137000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>38136100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>37504200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2973,83 +3505,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-764800</v>
+        <v>360500</v>
       </c>
       <c r="E81" s="3">
-        <v>895700</v>
+        <v>512900</v>
       </c>
       <c r="F81" s="3">
-        <v>473800</v>
+        <v>621300</v>
       </c>
       <c r="G81" s="3">
-        <v>867500</v>
+        <v>1405200</v>
       </c>
       <c r="H81" s="3">
+        <v>855000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>452200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>828100</v>
+      </c>
+      <c r="K81" s="3">
         <v>482700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>757800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>444300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>758300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>142100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>483600</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3063,43 +3622,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>727500</v>
+        <v>721900</v>
       </c>
       <c r="E83" s="3">
-        <v>703900</v>
+        <v>724800</v>
       </c>
       <c r="F83" s="3">
-        <v>720600</v>
+        <v>725800</v>
       </c>
       <c r="G83" s="3">
-        <v>723600</v>
+        <v>2744800</v>
       </c>
       <c r="H83" s="3">
+        <v>671900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>687800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>690700</v>
+      </c>
+      <c r="K83" s="3">
         <v>735100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>721200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>711700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>750400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>715000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>736700</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3133,8 +3704,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,8 +3748,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3203,8 +3792,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3238,8 +3836,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3273,43 +3880,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1454900</v>
+        <v>1074400</v>
       </c>
       <c r="E89" s="3">
-        <v>1710300</v>
+        <v>1116400</v>
       </c>
       <c r="F89" s="3">
-        <v>669800</v>
+        <v>1196100</v>
       </c>
       <c r="G89" s="3">
-        <v>1334400</v>
+        <v>4934500</v>
       </c>
       <c r="H89" s="3">
+        <v>1632500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>639400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1273700</v>
+      </c>
+      <c r="K89" s="3">
         <v>2189000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>1246400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>762400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>700300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>151000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>1566800</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3323,43 +3948,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-687500</v>
+        <v>-520200</v>
       </c>
       <c r="E91" s="3">
-        <v>-424000</v>
+        <v>-447000</v>
       </c>
       <c r="F91" s="3">
-        <v>-412300</v>
+        <v>-385000</v>
       </c>
       <c r="G91" s="3">
-        <v>-355600</v>
+        <v>-1793900</v>
       </c>
       <c r="H91" s="3">
+        <v>-404700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-393500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-339400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-638700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-425500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-470800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-551900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-328000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-780000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3393,8 +4030,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3428,43 +4074,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>4000</v>
+        <v>-839600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1722100</v>
+        <v>173000</v>
       </c>
       <c r="F94" s="3">
-        <v>457100</v>
+        <v>-625000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1069100</v>
+        <v>-2224300</v>
       </c>
       <c r="H94" s="3">
+        <v>-1643800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>436300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1020500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1650200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-1008500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-556600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-147700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-354200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-569600</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3478,43 +4142,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-135300</v>
+        <v>-134500</v>
       </c>
       <c r="E96" s="3">
-        <v>-103000</v>
+        <v>-467300</v>
       </c>
       <c r="F96" s="3">
-        <v>-346200</v>
+        <v>-7500</v>
       </c>
       <c r="G96" s="3">
-        <v>-4800</v>
+        <v>-562500</v>
       </c>
       <c r="H96" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-330400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-105600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
         <v>-105800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
         <v>-506300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
         <v>-4500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-59300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>-107900</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3548,8 +4224,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3583,8 +4268,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3618,43 +4312,61 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1981200</v>
+        <v>6900</v>
       </c>
       <c r="E100" s="3">
-        <v>547700</v>
+        <v>-1366500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1311700</v>
+        <v>-570100</v>
       </c>
       <c r="G100" s="3">
-        <v>-66500</v>
+        <v>-2683800</v>
       </c>
       <c r="H100" s="3">
+        <v>522900</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1252100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-840600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-186400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-56900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-300400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-655100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-1246800</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3688,39 +4400,57 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-522300</v>
+        <v>241800</v>
       </c>
       <c r="E102" s="3">
-        <v>535900</v>
+        <v>-77100</v>
       </c>
       <c r="F102" s="3">
-        <v>-184800</v>
+        <v>1000</v>
       </c>
       <c r="G102" s="3">
-        <v>198800</v>
+        <v>26300</v>
       </c>
       <c r="H102" s="3">
+        <v>511600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-176400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>189700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-301800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>51400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>149000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>252100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-858300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-249600</v>
       </c>
     </row>
